--- a/resources/GIL2/notes.xlsx
+++ b/resources/GIL2/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\Gestion-des-notes-avec-XML\resources\GIL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0852F9-213D-4FC3-A9B7-7889FBBFD8D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B7428D-B9DB-4F14-9FA9-AB1848770590}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>CNE</t>
   </si>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t>Grutchfield</t>
-  </si>
-  <si>
-    <t>MOY</t>
   </si>
   <si>
     <t>Note_GIL31</t>
@@ -701,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,10 +710,9 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="15" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -727,46 +723,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>189</v>
       </c>
@@ -812,12 +805,8 @@
       <c r="O2" s="2">
         <v>12</v>
       </c>
-      <c r="P2" s="2">
-        <f>AVERAGE(D2:O2)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>190</v>
       </c>
@@ -863,12 +852,8 @@
       <c r="O3" s="2">
         <v>12</v>
       </c>
-      <c r="P3" s="2">
-        <f t="shared" ref="P3:P48" si="0">AVERAGE(D3:O3)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>191</v>
       </c>
@@ -914,12 +899,8 @@
       <c r="O4" s="2">
         <v>12</v>
       </c>
-      <c r="P4" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>192</v>
       </c>
@@ -965,12 +946,8 @@
       <c r="O5" s="2">
         <v>12</v>
       </c>
-      <c r="P5" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>193</v>
       </c>
@@ -1016,12 +993,8 @@
       <c r="O6" s="2">
         <v>12</v>
       </c>
-      <c r="P6" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>194</v>
       </c>
@@ -1067,12 +1040,8 @@
       <c r="O7" s="2">
         <v>12</v>
       </c>
-      <c r="P7" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>195</v>
       </c>
@@ -1118,12 +1087,8 @@
       <c r="O8" s="2">
         <v>12</v>
       </c>
-      <c r="P8" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>196</v>
       </c>
@@ -1169,12 +1134,8 @@
       <c r="O9" s="2">
         <v>12</v>
       </c>
-      <c r="P9" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>197</v>
       </c>
@@ -1220,12 +1181,8 @@
       <c r="O10" s="2">
         <v>12</v>
       </c>
-      <c r="P10" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>198</v>
       </c>
@@ -1271,12 +1228,8 @@
       <c r="O11" s="2">
         <v>12</v>
       </c>
-      <c r="P11" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>199</v>
       </c>
@@ -1322,12 +1275,8 @@
       <c r="O12" s="2">
         <v>12</v>
       </c>
-      <c r="P12" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>200</v>
       </c>
@@ -1373,12 +1322,8 @@
       <c r="O13" s="2">
         <v>12</v>
       </c>
-      <c r="P13" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>201</v>
       </c>
@@ -1424,12 +1369,8 @@
       <c r="O14" s="2">
         <v>12</v>
       </c>
-      <c r="P14" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>202</v>
       </c>
@@ -1475,12 +1416,8 @@
       <c r="O15" s="2">
         <v>12</v>
       </c>
-      <c r="P15" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>203</v>
       </c>
@@ -1526,12 +1463,8 @@
       <c r="O16" s="2">
         <v>12</v>
       </c>
-      <c r="P16" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>204</v>
       </c>
@@ -1577,12 +1510,8 @@
       <c r="O17" s="2">
         <v>12</v>
       </c>
-      <c r="P17" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>205</v>
       </c>
@@ -1628,12 +1557,8 @@
       <c r="O18" s="2">
         <v>12</v>
       </c>
-      <c r="P18" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>206</v>
       </c>
@@ -1679,12 +1604,8 @@
       <c r="O19" s="2">
         <v>12</v>
       </c>
-      <c r="P19" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>207</v>
       </c>
@@ -1730,12 +1651,8 @@
       <c r="O20" s="2">
         <v>12</v>
       </c>
-      <c r="P20" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>208</v>
       </c>
@@ -1781,12 +1698,8 @@
       <c r="O21" s="2">
         <v>12</v>
       </c>
-      <c r="P21" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>209</v>
       </c>
@@ -1832,12 +1745,8 @@
       <c r="O22" s="2">
         <v>12</v>
       </c>
-      <c r="P22" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>210</v>
       </c>
@@ -1883,12 +1792,8 @@
       <c r="O23" s="2">
         <v>12</v>
       </c>
-      <c r="P23" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>211</v>
       </c>
@@ -1934,12 +1839,8 @@
       <c r="O24" s="2">
         <v>12</v>
       </c>
-      <c r="P24" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>212</v>
       </c>
@@ -1985,12 +1886,8 @@
       <c r="O25" s="2">
         <v>12</v>
       </c>
-      <c r="P25" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>213</v>
       </c>
@@ -2036,12 +1933,8 @@
       <c r="O26" s="2">
         <v>12</v>
       </c>
-      <c r="P26" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>214</v>
       </c>
@@ -2087,12 +1980,8 @@
       <c r="O27" s="2">
         <v>12</v>
       </c>
-      <c r="P27" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>215</v>
       </c>
@@ -2138,12 +2027,8 @@
       <c r="O28" s="2">
         <v>12</v>
       </c>
-      <c r="P28" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>216</v>
       </c>
@@ -2189,12 +2074,8 @@
       <c r="O29" s="2">
         <v>12</v>
       </c>
-      <c r="P29" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>217</v>
       </c>
@@ -2240,12 +2121,8 @@
       <c r="O30" s="2">
         <v>12</v>
       </c>
-      <c r="P30" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>218</v>
       </c>
@@ -2291,12 +2168,8 @@
       <c r="O31" s="2">
         <v>12</v>
       </c>
-      <c r="P31" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>219</v>
       </c>
@@ -2342,12 +2215,8 @@
       <c r="O32" s="2">
         <v>12</v>
       </c>
-      <c r="P32" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>220</v>
       </c>
@@ -2393,12 +2262,8 @@
       <c r="O33" s="2">
         <v>12</v>
       </c>
-      <c r="P33" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>221</v>
       </c>
@@ -2444,12 +2309,8 @@
       <c r="O34" s="2">
         <v>12</v>
       </c>
-      <c r="P34" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>222</v>
       </c>
@@ -2495,12 +2356,8 @@
       <c r="O35" s="2">
         <v>12</v>
       </c>
-      <c r="P35" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>223</v>
       </c>
@@ -2546,12 +2403,8 @@
       <c r="O36" s="2">
         <v>12</v>
       </c>
-      <c r="P36" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>224</v>
       </c>
@@ -2597,12 +2450,8 @@
       <c r="O37" s="2">
         <v>12</v>
       </c>
-      <c r="P37" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>225</v>
       </c>
@@ -2648,12 +2497,8 @@
       <c r="O38" s="2">
         <v>12</v>
       </c>
-      <c r="P38" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>226</v>
       </c>
@@ -2699,12 +2544,8 @@
       <c r="O39" s="2">
         <v>12</v>
       </c>
-      <c r="P39" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>227</v>
       </c>
@@ -2750,12 +2591,8 @@
       <c r="O40" s="2">
         <v>12</v>
       </c>
-      <c r="P40" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>228</v>
       </c>
@@ -2801,12 +2638,8 @@
       <c r="O41" s="2">
         <v>12</v>
       </c>
-      <c r="P41" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>229</v>
       </c>
@@ -2852,12 +2685,8 @@
       <c r="O42" s="2">
         <v>12</v>
       </c>
-      <c r="P42" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>230</v>
       </c>
@@ -2903,12 +2732,8 @@
       <c r="O43" s="2">
         <v>12</v>
       </c>
-      <c r="P43" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>231</v>
       </c>
@@ -2954,12 +2779,8 @@
       <c r="O44" s="2">
         <v>12</v>
       </c>
-      <c r="P44" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>232</v>
       </c>
@@ -3005,12 +2826,8 @@
       <c r="O45" s="2">
         <v>12</v>
       </c>
-      <c r="P45" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>233</v>
       </c>
@@ -3056,12 +2873,8 @@
       <c r="O46" s="2">
         <v>12</v>
       </c>
-      <c r="P46" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>234</v>
       </c>
@@ -3107,12 +2920,8 @@
       <c r="O47" s="2">
         <v>12</v>
       </c>
-      <c r="P47" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>235</v>
       </c>
@@ -3156,10 +2965,6 @@
         <v>12</v>
       </c>
       <c r="O48" s="2">
-        <v>12</v>
-      </c>
-      <c r="P48" s="2">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
